--- a/assets/templates/template_data_kelas.xlsx
+++ b/assets/templates/template_data_kelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data Aplikasi\xampp\htdocs\Raport\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B374F31-E6D9-4FE8-92D1-FAE2F5A6C3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5887D3-249C-4415-B9F1-26C0B9103336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -106,6 +106,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,13 +418,15 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
